--- a/planAddressage.xlsx
+++ b/planAddressage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nassi\Pictures\projetRéseau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Projet-r-seau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B1F93C-0864-4D87-8520-A76339610509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C3C6D3-57C1-4B5E-B6DF-0D8D64180442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C509C138-5F42-4F7B-90F5-9C215EE5A619}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C509C138-5F42-4F7B-90F5-9C215EE5A619}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -362,13 +362,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,15 +708,15 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -742,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -756,15 +756,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="1">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="1">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="1">
         <v>3</v>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -828,7 +828,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -836,25 +836,25 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>

--- a/planAddressage.xlsx
+++ b/planAddressage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nassi\Pictures\projetRéseau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B1F93C-0864-4D87-8520-A76339610509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C143A-0A3E-42FF-96BB-26A2ACF27D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C509C138-5F42-4F7B-90F5-9C215EE5A619}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>VLAN 10</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>192.168.30.0/28</t>
+  </si>
+  <si>
+    <t>Passerelle par défaut</t>
+  </si>
+  <si>
+    <t>192.168.10.254</t>
+  </si>
+  <si>
+    <t>192.168.20.254</t>
+  </si>
+  <si>
+    <t>192.168.30.254</t>
   </si>
 </sst>
 </file>
@@ -95,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -125,6 +137,51 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -149,6 +206,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -173,127 +245,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -340,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -348,27 +299,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -705,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE2E54-173D-4B74-8DA3-30D7CE16B237}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,34 +667,34 @@
     <col min="2" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -752,117 +703,114 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="D13" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A15"/>
+  <mergeCells count="3">
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planAddressage.xlsx
+++ b/planAddressage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nassi\Pictures\projetRéseau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23313530-29CB-4161-A5F8-D1DF0C06A874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93AFD6-D80D-45A8-80DA-5215CD403120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C509C138-5F42-4F7B-90F5-9C215EE5A619}"/>
   </bookViews>
@@ -107,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -137,51 +137,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -283,6 +238,90 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -291,37 +330,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,7 +701,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,34 +709,34 @@
     <col min="2" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -703,12 +745,12 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="11"/>
@@ -716,96 +758,96 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <v>7</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
